--- a/okkp/imports/template_excel/Izin_Edar_PSAT_PD.xlsx
+++ b/okkp/imports/template_excel/Izin_Edar_PSAT_PD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Template_Okkp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Nusantera\PSAT\psat-core\okkp\imports\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41582FF9-63EF-44FA-97C7-3412CA517341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="564">
   <si>
     <t>Komoditas</t>
   </si>
@@ -1714,12 +1715,15 @@
   </si>
   <si>
     <t>25/05/2022</t>
+  </si>
+  <si>
+    <t>Lembaga Penerbit Registrasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1835,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1853,15 +1857,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2149,12 +2148,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,9 +2169,10 @@
     <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>541</v>
       </c>
@@ -2191,26 +2191,29 @@
       <c r="F1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2226,25 +2229,25 @@
       <c r="E2" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>562</v>
       </c>
     </row>
@@ -2253,7 +2256,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$552</xm:f>
           </x14:formula1>
@@ -2266,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D552"/>
   <sheetViews>
     <sheetView topLeftCell="A517" workbookViewId="0">
@@ -2280,19 +2283,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
+      <c r="B2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
